--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/137.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/137.xlsx
@@ -479,13 +479,13 @@
         <v>-19.35008272732549</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.469324959385672</v>
+        <v>-9.939482646734897</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.027925053559288</v>
+        <v>-3.07048813009774</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.192177542770379</v>
+        <v>-6.757647194807369</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-19.0183319830499</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.753833792439222</v>
+        <v>-10.23324773789755</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.016901334566555</v>
+        <v>-3.007566522640404</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.156173709955632</v>
+        <v>-6.72564960666219</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-18.54525424061364</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.57812517935429</v>
+        <v>-11.05722490954442</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.848102274028181</v>
+        <v>-2.806534212505701</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.042506336683766</v>
+        <v>-6.602961636732376</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.96288938257844</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.31152979994211</v>
+        <v>-11.78376916344316</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.791386418117824</v>
+        <v>-2.783845251680989</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.275444588843756</v>
+        <v>-6.84935877621366</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-17.2663022622288</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.14468467588103</v>
+        <v>-12.64545216727421</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.615871006221644</v>
+        <v>-2.578544850819883</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.80087479543687</v>
+        <v>-6.354338805767997</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.48074663625641</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.83239715955122</v>
+        <v>-13.32686725327753</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.561498672519956</v>
+        <v>-2.514091443930066</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.898988512932765</v>
+        <v>-6.440407604649505</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.62659272490319</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.38181564830425</v>
+        <v>-13.90324279358167</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.454796404359888</v>
+        <v>-2.424828123155177</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.406626279963973</v>
+        <v>-5.921140689340965</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.73589167996108</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.38366484635881</v>
+        <v>-14.91111445094343</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.247885650249249</v>
+        <v>-2.248815203751012</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.232315359929232</v>
+        <v>-5.706832784124751</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.84158366769072</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.13588310613018</v>
+        <v>-15.65714005147066</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.224633720402344</v>
+        <v>-2.216136815858063</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.854811899790902</v>
+        <v>-5.33211798449171</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-12.97693757459372</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.82359558980037</v>
+        <v>-16.36848414177017</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.022370733800518</v>
+        <v>-2.00562567846595</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.622410432047423</v>
+        <v>-5.097372994539561</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.18446441750851</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.4752387791416</v>
+        <v>-17.01834677792492</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.09710159842109</v>
+        <v>-2.141288120511916</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.091596105632481</v>
+        <v>-4.577530017905986</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.49599725652969</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.45675563088296</v>
+        <v>-17.98990038720373</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.893882873711818</v>
+        <v>-1.923785693402321</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.439389947269055</v>
+        <v>-3.894871163132705</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.95241226392381</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.05138184134848</v>
+        <v>-18.57862196908763</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.628501895110031</v>
+        <v>-1.671064971648482</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.139563119890687</v>
+        <v>-3.637607412292788</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-10.56711560512274</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.9665861791965</v>
+        <v>-19.51353022271244</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.483975964040217</v>
+        <v>-1.536685575281006</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.547555369993517</v>
+        <v>-3.045128339493317</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-10.35195358437967</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.87718202644423</v>
+        <v>-20.43875017223438</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.318829655994684</v>
+        <v>-1.362165178400797</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.143422165875117</v>
+        <v>-2.606392178964234</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-10.28677421557533</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.67523643846448</v>
+        <v>-21.23527278482216</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.121253713810196</v>
+        <v>-1.19667847048138</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.639198306531721</v>
+        <v>-2.122409019814147</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-10.3520555871063</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.63721957436599</v>
+        <v>-22.19454581403543</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.026897487229876</v>
+        <v>-1.09170438629642</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.27601782570224</v>
+        <v>-1.740860038097724</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.50514691818131</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.47863569339804</v>
+        <v>-23.04165708480363</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9155998207723629</v>
+        <v>-1.005321372146712</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9145131596364997</v>
+        <v>-1.400892210206623</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-10.71388979171737</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.15123965958887</v>
+        <v>-23.74336524021162</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6851491061523007</v>
+        <v>-0.8003482788566484</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5755141621556866</v>
+        <v>-1.064131996511745</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.93505111902589</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.76833226173079</v>
+        <v>-24.35200021471778</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4029707030045787</v>
+        <v>-0.536970422589645</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2226766005711691</v>
+        <v>-0.694837410255178</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.14230237690063</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.42948046293511</v>
+        <v>-25.0308753939698</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2235799694672481</v>
+        <v>-0.4032063644557298</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.08759021985023947</v>
+        <v>-0.4774920907796835</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.30396218486599</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.8677453005619</v>
+        <v>-25.44124053424087</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1523709343111</v>
+        <v>-0.3425628176928547</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1255262858073775</v>
+        <v>-0.2871169151581447</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.40451013997071</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.28899014449443</v>
+        <v>-25.89306899761167</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1841721379136527</v>
+        <v>-0.3778989430626733</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1365500048001108</v>
+        <v>-0.2459939919322832</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.42550223664406</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.5488723559027</v>
+        <v>-26.14218933608404</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1178803809478094</v>
+        <v>-0.07287447145613937</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1355157128756145</v>
+        <v>-0.2309902128756651</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.36592109689415</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.55078383211758</v>
+        <v>-26.15801793021968</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09843831122784623</v>
+        <v>-0.1137748255336916</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.02496973535826369</v>
+        <v>-0.3969482436973847</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-11.22578599306893</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.54508868038144</v>
+        <v>-26.18524992013047</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1003813997266058</v>
+        <v>-0.3071481385059857</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.008198495418012599</v>
+        <v>-0.3660242243852277</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-11.02028705123363</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.61069420992132</v>
+        <v>-26.22448755174713</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07670508851058096</v>
+        <v>-0.0930758947409227</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2993974952236838</v>
+        <v>-0.6679850971267978</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.76542418562119</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.6847049978856</v>
+        <v>-26.33215865031748</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02086641689061927</v>
+        <v>-0.1491109509035103</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.3724525450805153</v>
+        <v>-0.7276467211765435</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.4874535177345</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.44249739531367</v>
+        <v>-26.06143601215627</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.08557400521261366</v>
+        <v>-0.2469890069482543</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.532859439497343</v>
+        <v>-0.8638459476390198</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-10.21076253146893</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.00101185118783</v>
+        <v>-25.64546736626895</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.09378287909437591</v>
+        <v>-0.2561012497260957</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.0449779574543</v>
+        <v>-1.387511876702379</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.958644286651616</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.05705999965326</v>
+        <v>-25.72691458224733</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.02481262772416298</v>
+        <v>-0.1670343134938333</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.183258860068611</v>
+        <v>-1.562595242604782</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.748272643563752</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.65029524266367</v>
+        <v>-25.29818094108932</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.07722111599959243</v>
+        <v>-0.2128573734398745</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.678396661239849</v>
+        <v>-2.067159501822063</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.588884233605407</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.0322469024143</v>
+        <v>-24.65732580928967</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1494644430802369</v>
+        <v>-0.2517153282741175</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.72679890484571</v>
+        <v>-2.09232290788386</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.486668474895884</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.68128154013615</v>
+        <v>-24.29804683470703</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.347708092709653</v>
+        <v>-0.4510325467365551</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.842678877297828</v>
+        <v>-2.24060632986925</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.436482487168384</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.90875711865727</v>
+        <v>-23.49832970022587</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4548685914691808</v>
+        <v>-0.543189266439465</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.021506641812964</v>
+        <v>-2.407768852552408</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.43427709335289</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.11876756518751</v>
+        <v>-22.70332579476774</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3970529821201185</v>
+        <v>-0.4957558532438914</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.171099294082526</v>
+        <v>-2.575507436560602</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.46535338759975</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.73171981627757</v>
+        <v>-22.33332422415772</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4574608674318426</v>
+        <v>-0.5527073706053998</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.437370549277551</v>
+        <v>-2.850183950180015</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.52175583286847</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.08293074895583</v>
+        <v>-21.6736816377802</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.3738403291817382</v>
+        <v>-0.500076313181661</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.611576730889558</v>
+        <v>-3.043387063215367</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.587984360777691</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.70638302692495</v>
+        <v>-21.27386889359957</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5916176946510097</v>
+        <v>-0.6735886027430565</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.817715039132535</v>
+        <v>-3.232060239467482</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.659203973993305</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.1090467097712</v>
+        <v>-20.63450628432387</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3596613652041489</v>
+        <v>-0.4761435835869857</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.712636216524841</v>
+        <v>-3.14906813175378</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.723371450686777</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.58472616556575</v>
+        <v>-20.14312597406821</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1184618699510295</v>
+        <v>-0.2282539215817443</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.784107097737824</v>
+        <v>-3.266296611398595</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.780702099373638</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.67652620973805</v>
+        <v>-19.22064231584019</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.1035235524086201</v>
+        <v>-0.2012837777277887</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.740823944543078</v>
+        <v>-3.252170016632373</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.825425674895381</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.3505671458876</v>
+        <v>-18.88521751703517</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.05764812325121196</v>
+        <v>-0.1490585816921434</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.95731826433386</v>
+        <v>-3.487910021600492</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.864813370032198</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.8000619959987</v>
+        <v>-18.30915619199922</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.08168559126862102</v>
+        <v>-0.1771546635904875</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.016430011664253</v>
+        <v>-3.559276164390741</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.899000324386988</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.35430836114645</v>
+        <v>-17.84225848805758</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.01452207769056629</v>
+        <v>-0.1004337689379727</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.872244480468324</v>
+        <v>-3.364750728768375</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.938700892340153</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.67962271880379</v>
+        <v>-17.15152168243096</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.05221481757189564</v>
+        <v>-0.1577518707790495</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.231654378079388</v>
+        <v>-3.750096478308898</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.985722569612722</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.02320083892532</v>
+        <v>-16.49156488078523</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.02248219781833574</v>
+        <v>-0.1066002435764257</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.121626664997522</v>
+        <v>-3.599561180234732</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.05259748300801</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.41977660095017</v>
+        <v>-15.83790547680637</v>
       </c>
       <c r="F49" t="n">
-        <v>0.07658725778500541</v>
+        <v>-0.01827956860614167</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.388068120129489</v>
+        <v>-3.906117451273748</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.14339934942858</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.7197704449116</v>
+        <v>-15.11221222259234</v>
       </c>
       <c r="F50" t="n">
-        <v>0.173771421779138</v>
+        <v>0.04957783702252454</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.343305536713628</v>
+        <v>-3.867887926975908</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.27147828072863</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.90502334676815</v>
+        <v>-14.29345887977932</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1973244745914032</v>
+        <v>0.08051494863752325</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.482044669927399</v>
+        <v>-4.049307967453706</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.43883613386595</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.31569951895353</v>
+        <v>-13.71476600187219</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2659412337848895</v>
+        <v>0.1487913079571247</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.436601286763768</v>
+        <v>-3.942933006864682</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.65118639108537</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.66370283743557</v>
+        <v>-13.03610029946563</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3288104720308581</v>
+        <v>0.2238102032402151</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.482214869864341</v>
+        <v>-4.001809092743924</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.90270987273169</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.28344999370048</v>
+        <v>-12.65089856525637</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2115950846888846</v>
+        <v>0.08030547179205562</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.649613053998651</v>
+        <v>-4.210526584646721</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.18936271793516</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.74172977901838</v>
+        <v>-12.04484277441003</v>
       </c>
       <c r="F55" t="n">
-        <v>0.02258150856288539</v>
+        <v>-0.06587008943581593</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.092525659134243</v>
+        <v>-4.616296326620337</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.50136225013198</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.31599427521113</v>
+        <v>-11.61341211886663</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0389599794178847</v>
+        <v>-0.08768186597013156</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.19459325208834</v>
+        <v>-4.74185151087249</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.83040132125407</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.54720116004214</v>
+        <v>-10.83613519145619</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.01350087806891166</v>
+        <v>-0.1295641427608132</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.592638535385338</v>
+        <v>-5.171187397961213</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.16984945487794</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.28185945834888</v>
+        <v>-10.58036396314023</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1822213847902355</v>
+        <v>-0.2912671751589719</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.616937849459582</v>
+        <v>-5.175900626984234</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.5107848778179</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.686382248198649</v>
+        <v>-9.95686922490871</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.1232274681854178</v>
+        <v>-0.2436242851179307</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.915389985039569</v>
+        <v>-5.489107787866847</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.84932677359691</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.342172514186828</v>
+        <v>-9.648034893175232</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.2329933352104492</v>
+        <v>-0.3447230476617394</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.806514394607775</v>
+        <v>-5.359873666516169</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-13.17391416402563</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.790318857105234</v>
+        <v>-9.077459243029969</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.2583924027233978</v>
+        <v>-0.3712873301276016</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.183219224272759</v>
+        <v>-5.730516759965434</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-13.48026186803762</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.31152024988047</v>
+        <v>-8.602915634228767</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2155151109167449</v>
+        <v>-0.3203844566789707</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.200343956389736</v>
+        <v>-5.760982548678131</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.75405555003178</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.864444292441208</v>
+        <v>-8.151205001583534</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2326005661251974</v>
+        <v>-0.331840221665481</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.182171840045421</v>
+        <v>-5.742823524636656</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.99316812978107</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.506775671108093</v>
+        <v>-7.809404251294591</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.389001215872457</v>
+        <v>-0.4806604280673812</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.371643646770881</v>
+        <v>-5.913926830475174</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-14.18499431234892</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.155234247504906</v>
+        <v>-7.45426244440993</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.3230421941558411</v>
+        <v>-0.4014912727834637</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.631800796538819</v>
+        <v>-6.150544019733689</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-14.33199042286127</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.906074632124017</v>
+        <v>-7.197902062466092</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4398779047154045</v>
+        <v>-0.5254884729974513</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.594723394891052</v>
+        <v>-6.095569440101282</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-14.42744874206441</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.739985678273881</v>
+        <v>-7.032271339215415</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.531000332493818</v>
+        <v>-0.621952560335289</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.687155052953637</v>
+        <v>-6.177239225227969</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-14.47989548248779</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.464248688124288</v>
+        <v>-6.749333582502873</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4774397215683166</v>
+        <v>-0.5737467012720535</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.662999754210652</v>
+        <v>-6.13234571878369</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-14.48957505797331</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.341848748856991</v>
+        <v>-6.644699898191798</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7666355990392038</v>
+        <v>-0.8742281437925086</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.701975539770471</v>
+        <v>-6.14440372970092</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-14.46814297386522</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.149287158660884</v>
+        <v>-6.460635212539971</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6829888761834159</v>
+        <v>-0.7701050592922611</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.540770014880298</v>
+        <v>-5.968927594713265</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-14.41842387273431</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.056685300661355</v>
+        <v>-6.389504731200874</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7517758353138446</v>
+        <v>-0.8419687095904955</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.458812199091093</v>
+        <v>-5.86891549330532</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-14.348608612069</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.061581821924161</v>
+        <v>-6.410373861930585</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8769906196921128</v>
+        <v>-0.9784821513211732</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.290890322843114</v>
+        <v>-5.664125692255041</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-14.26180233632015</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.116922986036137</v>
+        <v>-6.468686978787633</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.927016308850348</v>
+        <v>-1.035512222499732</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.111421035488734</v>
+        <v>-5.496478754366739</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-14.16186829283708</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.335276412830445</v>
+        <v>-6.685849006023344</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.8064231073752093</v>
+        <v>-0.9148928364189097</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.971176287448164</v>
+        <v>-5.340431596796206</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-14.05429677504782</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.51560979217238</v>
+        <v>-6.85519794328107</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.143327336401346</v>
+        <v>-1.267992244060262</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.802468873029682</v>
+        <v>-5.170663705847543</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-13.94071322239272</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.991397169743546</v>
+        <v>-7.320485293973173</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.074370177333975</v>
+        <v>-1.206942835909293</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.592599258476812</v>
+        <v>-4.92860011860687</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-13.82870550259369</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.433471867497269</v>
+        <v>-7.737252570333839</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.136768092677641</v>
+        <v>-1.279068332264362</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.520329746790485</v>
+        <v>-4.870627401623707</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-13.71815987014842</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.032745845471595</v>
+        <v>-8.339354485721978</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.196141686064869</v>
+        <v>-1.321592131894288</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.150315083877623</v>
+        <v>-4.520513039030269</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-13.61849648244745</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.445375954134276</v>
+        <v>-8.748920995519695</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.196665378178538</v>
+        <v>-1.350565398083028</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.002149492617809</v>
+        <v>-4.385740873577541</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-13.52754482461801</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.899469385896703</v>
+        <v>-9.192723877248525</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.33192195883641</v>
+        <v>-1.454479005737808</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.643603686994298</v>
+        <v>-4.033571019437951</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-13.45385916807148</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.796357592069148</v>
+        <v>-10.0698557984328</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.302673754287994</v>
+        <v>-1.447016393118024</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.642975256457896</v>
+        <v>-4.049229413636656</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-13.39245826331472</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.56212638528171</v>
+        <v>-10.80637638709695</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.38440900092889</v>
+        <v>-1.533870730170035</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.444757791434163</v>
+        <v>-3.839831121986089</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-13.34989275928823</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.36156858140318</v>
+        <v>-11.58454359110062</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.515358213951834</v>
+        <v>-1.670502002626288</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.106243209158494</v>
+        <v>-3.518271071890455</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-13.31899995134617</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.54651363469928</v>
+        <v>-12.78061710181219</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.58465577289309</v>
+        <v>-1.734470994310962</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.962502816259184</v>
+        <v>-3.370184034447691</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-13.30528403256251</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.43322912156371</v>
+        <v>-13.64816545731632</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.654935254547476</v>
+        <v>-1.790859542650276</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.63276007688747</v>
+        <v>-3.035858989081374</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-13.30123523091593</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.57068839245287</v>
+        <v>-14.75048498737829</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.843333492439914</v>
+        <v>-1.975971612529441</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.375745079801546</v>
+        <v>-2.785023558936745</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-13.310272665148</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.63490932124541</v>
+        <v>-15.79614103074127</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.877268741405668</v>
+        <v>-2.006450493544979</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.952523298139909</v>
+        <v>-2.351092273550576</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-13.32473785986682</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.03236863426841</v>
+        <v>-17.1851689007342</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.840688847265885</v>
+        <v>-1.934416643309802</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.66497705082708</v>
+        <v>-2.087662048072206</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-13.34695243329679</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.66978367377457</v>
+        <v>-18.79984261020427</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.060744273429617</v>
+        <v>-2.159276944616447</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.484787686816404</v>
+        <v>-1.906726422799552</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-13.37028392343693</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.25245979509947</v>
+        <v>-20.3714819202336</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.281532868552485</v>
+        <v>-2.36333357670759</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.200488330608322</v>
+        <v>-1.622911481796614</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-13.39338083631817</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.98499041475076</v>
+        <v>-22.04139205539292</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.455725957861651</v>
+        <v>-2.507401277177943</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.342055401235906</v>
+        <v>-1.758456093117004</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-13.40912454814452</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.64789616788975</v>
+        <v>-23.67502341937781</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.557296043307761</v>
+        <v>-2.625690233352938</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.140276829839224</v>
+        <v>-1.55704410619989</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-13.41054771413597</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.75065092729938</v>
+        <v>-25.77625947165779</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.687839394942612</v>
+        <v>-2.722245966810668</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.116147715701923</v>
+        <v>-1.527376947960539</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-13.38974440900406</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.97210050427209</v>
+        <v>-27.98335988471597</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.542148248919884</v>
+        <v>-2.564627732899128</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.222836891559149</v>
+        <v>-1.611900855106722</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-13.33802120102309</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.24178212491372</v>
+        <v>-30.23520978888717</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.995076465729398</v>
+        <v>-2.996333326802203</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.572401377433235</v>
+        <v>-1.974413628491275</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-13.25070461804248</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.46418743999388</v>
+        <v>-32.46748670030999</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.026484900246698</v>
+        <v>-2.992444912858211</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.824179453382469</v>
+        <v>-2.238773407471408</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-13.12312521764504</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.69647744371954</v>
+        <v>-34.71416514485871</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.326678312104636</v>
+        <v>-3.255770399913847</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.013978567678971</v>
+        <v>-2.407232068135897</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-12.95698940621083</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.20549945261077</v>
+        <v>-37.21196705021458</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.575052389315021</v>
+        <v>-3.509721798134808</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.448224068333342</v>
+        <v>-2.866287482675339</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-12.75761369705783</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.68621590275818</v>
+        <v>-39.64714847107847</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.505702461162398</v>
+        <v>-3.451683619637436</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.920699093285552</v>
+        <v>-3.347089212234887</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-12.53045572330899</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.25356412080929</v>
+        <v>-42.21879096446167</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.683351918421779</v>
+        <v>-3.629293799988292</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.224361965396546</v>
+        <v>-3.627068108505199</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.29434490824776</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.54767597855358</v>
+        <v>-44.52120334220761</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.897830023574935</v>
+        <v>-3.832054294098103</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.76770562563102</v>
+        <v>-4.126945323305142</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.04730821129083</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.86507904305331</v>
+        <v>-46.84252100525701</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.031397697166224</v>
+        <v>-3.95657518642576</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.070648421085719</v>
+        <v>-4.436185516426711</v>
       </c>
     </row>
   </sheetData>
